--- a/data.xlsx
+++ b/data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -643,7 +643,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>39751275523025334</t>
+          <t>49352183672372403</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -655,7 +655,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>49352183672372403</t>
+          <t>39751275523025334</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1039,7 +1039,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>23891830829322971</t>
+          <t>26711011601058186</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1051,7 +1051,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>26711011601058186</t>
+          <t>23891830829322971</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2179,7 +2179,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>40650252484299134</t>
+          <t>22215980602177059</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2191,7 +2191,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>22215980602177059</t>
+          <t>40650252484299134</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3139,7 +3139,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>43552974795606067</t>
+          <t>18865378787186640</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -3151,7 +3151,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>18865378787186640</t>
+          <t>43552974795606067</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -4711,7 +4711,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>62558705479545830</t>
+          <t>36531083140502478</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -4723,7 +4723,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>36531083140502478</t>
+          <t>62558705479545830</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -4903,7 +4903,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>64341992373049080</t>
+          <t>54135748720267868</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -4915,7 +4915,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>54135748720267868</t>
+          <t>64341992373049080</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -5095,7 +5095,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>4686607974846832</t>
+          <t>62422436072345198</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -5107,7 +5107,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>62422436072345198</t>
+          <t>4686607974846832</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -5683,7 +5683,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>31049085025064185</t>
+          <t>49831372632909204</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -5695,7 +5695,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>49831372632909204</t>
+          <t>31049085025064185</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -5875,7 +5875,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>65490886290565185</t>
+          <t>9049928781611298</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -5887,7 +5887,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>9049928781611298</t>
+          <t>65490886290565185</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -6067,7 +6067,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>16673205196919832</t>
+          <t>67965884006655065</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -6079,7 +6079,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>67965884006655065</t>
+          <t>16673205196919832</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -6259,7 +6259,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>28251956446987982</t>
+          <t>29915504190030439</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -6271,7 +6271,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>29915504190030439</t>
+          <t>28251956446987982</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -6451,7 +6451,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>28845264556937486</t>
+          <t>31920617569703557</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -6463,7 +6463,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>31920617569703557</t>
+          <t>28845264556937486</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -6811,7 +6811,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>71758511001096824</t>
+          <t>31316784129157162</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -6823,7 +6823,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>31316784129157162</t>
+          <t>71758511001096824</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
@@ -7015,7 +7015,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>61978776664766359</t>
+          <t>33736447482634583</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
@@ -7027,7 +7027,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>33736447482634583</t>
+          <t>61978776664766359</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
@@ -7207,7 +7207,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>19367527798307032</t>
+          <t>70849059438036431</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
@@ -7219,7 +7219,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>70849059438036431</t>
+          <t>19367527798307032</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
@@ -7411,7 +7411,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>64485827086284311</t>
+          <t>22742134293057021</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
@@ -7423,7 +7423,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>22742134293057021</t>
+          <t>64485827086284311</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
@@ -7603,7 +7603,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>43716452378323683</t>
+          <t>8304657348899424</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
@@ -7615,7 +7615,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>8304657348899424</t>
+          <t>43716452378323683</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
@@ -8179,7 +8179,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>36671655475498480</t>
+          <t>30535783752961355</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
@@ -8191,7 +8191,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>30535783752961355</t>
+          <t>36671655475498480</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
@@ -8563,7 +8563,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>45608932669358493</t>
+          <t>13196430375349226</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -8575,7 +8575,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>13196430375349226</t>
+          <t>45608932669358493</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
@@ -8923,7 +8923,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>63499217872110599</t>
+          <t>13279867471688540</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -8935,7 +8935,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>13279867471688540</t>
+          <t>63499217872110599</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -9127,7 +9127,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>22275596386264204</t>
+          <t>6787397679438294</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
@@ -9139,7 +9139,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>6787397679438294</t>
+          <t>22275596386264204</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
@@ -9331,7 +9331,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>53716725737664022</t>
+          <t>55376450081365373</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
@@ -9343,7 +9343,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>55376450081365373</t>
+          <t>53716725737664022</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
@@ -9523,7 +9523,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>45641540066710190</t>
+          <t>21758758306221606</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
@@ -9535,7 +9535,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>21758758306221606</t>
+          <t>45641540066710190</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
@@ -11659,7 +11659,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>24335615175713314</t>
+          <t>39854376080953165</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
@@ -11671,7 +11671,7 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>39854376080953165</t>
+          <t>24335615175713314</t>
         </is>
       </c>
       <c r="B935" t="inlineStr">
@@ -11971,43 +11971,43 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>59486059679335017</t>
+          <t>13696143900514915</t>
         </is>
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>وپترو</t>
+          <t>وپاسار</t>
         </is>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>7183333492448248</t>
+          <t>59486059679335017</t>
         </is>
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>وپخش</t>
+          <t>وپترو</t>
         </is>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>11560002870991149</t>
+          <t>7183333492448248</t>
         </is>
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>وپسا</t>
+          <t>وپخش</t>
         </is>
       </c>
     </row>
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>11431849672850123</t>
+          <t>11560002870991149</t>
         </is>
       </c>
       <c r="B963" t="inlineStr">
@@ -12019,43 +12019,43 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>22087269603540841</t>
+          <t>11431849672850123</t>
         </is>
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>وپست</t>
+          <t>وپسا</t>
         </is>
       </c>
     </row>
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>24785665268004766</t>
+          <t>22087269603540841</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>وپويا</t>
+          <t>وپست</t>
         </is>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>7920014658832193</t>
+          <t>24785665268004766</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>وگردش</t>
+          <t>وپويا</t>
         </is>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>66790687790437196</t>
+          <t>7920014658832193</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
@@ -12067,31 +12067,31 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>43951910415124966</t>
+          <t>66790687790437196</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>وگستر</t>
+          <t>وگردش</t>
         </is>
       </c>
     </row>
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>72044846109864381</t>
+          <t>43951910415124966</t>
         </is>
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>پارتا</t>
+          <t>وگستر</t>
         </is>
       </c>
     </row>
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>29242941150825379</t>
+          <t>72044846109864381</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
@@ -12103,7 +12103,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>68994573424108746</t>
+          <t>29242941150825379</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
@@ -12115,72 +12115,72 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>6110133418282108</t>
+          <t>68994573424108746</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>پارس</t>
+          <t>پارتا</t>
         </is>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>31710972837224178</t>
+          <t>6110133418282108</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>پارسا</t>
+          <t>پارس</t>
         </is>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>23441366113375722</t>
+          <t>31710972837224178</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>پارسان</t>
+          <t>پارسا</t>
         </is>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>9481703061634967</t>
+          <t>23441366113375722</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>پارسيان</t>
+          <t>پارسان</t>
         </is>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>63580313877463104</t>
+          <t>9481703061634967</t>
         </is>
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>پاسا</t>
+          <t>پارسيان</t>
         </is>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>13696143900514915</t>
+          <t>63580313877463104</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>وپاسار</t>
+          <t>پاسا</t>
         </is>
       </c>
     </row>
@@ -12211,7 +12211,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>69143674941561637</t>
+          <t>57219771314070546</t>
         </is>
       </c>
       <c r="B980" t="inlineStr">
@@ -12223,7 +12223,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>57219771314070546</t>
+          <t>8590994832698963</t>
         </is>
       </c>
       <c r="B981" t="inlineStr">
@@ -12235,7 +12235,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>8590994832698963</t>
+          <t>69143674941561637</t>
         </is>
       </c>
       <c r="B982" t="inlineStr">
@@ -12391,7 +12391,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>7235435095059069</t>
+          <t>48149300900903755</t>
         </is>
       </c>
       <c r="B995" t="inlineStr">
@@ -12403,7 +12403,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>48149300900903755</t>
+          <t>7235435095059069</t>
         </is>
       </c>
       <c r="B996" t="inlineStr">
@@ -12427,7 +12427,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>52593789542874668</t>
+          <t>14419337127600051</t>
         </is>
       </c>
       <c r="B998" t="inlineStr">
@@ -12439,7 +12439,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>14419337127600051</t>
+          <t>52593789542874668</t>
         </is>
       </c>
       <c r="B999" t="inlineStr">
@@ -12619,7 +12619,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>59887423232292688</t>
+          <t>45709267601703167</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr">
@@ -12631,7 +12631,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>45709267601703167</t>
+          <t>59887423232292688</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr">

--- a/data.xlsx
+++ b/data.xlsx
@@ -64,12 +64,12 @@
     <t>46772701938567445</t>
   </si>
   <si>
+    <t>49352183672372403</t>
+  </si>
+  <si>
     <t>39751275523025334</t>
   </si>
   <si>
-    <t>49352183672372403</t>
-  </si>
-  <si>
     <t>51379017087081407</t>
   </si>
   <si>
@@ -163,12 +163,12 @@
     <t>62952165421099192</t>
   </si>
   <si>
+    <t>26711011601058186</t>
+  </si>
+  <si>
     <t>23891830829322971</t>
   </si>
   <si>
-    <t>26711011601058186</t>
-  </si>
-  <si>
     <t>46752599569017089</t>
   </si>
   <si>
@@ -448,12 +448,12 @@
     <t>18568733593280948</t>
   </si>
   <si>
+    <t>22215980602177059</t>
+  </si>
+  <si>
     <t>40650252484299134</t>
   </si>
   <si>
-    <t>22215980602177059</t>
-  </si>
-  <si>
     <t>68909035712962732</t>
   </si>
   <si>
@@ -688,12 +688,12 @@
     <t>40003237661553472</t>
   </si>
   <si>
+    <t>18865378787186640</t>
+  </si>
+  <si>
     <t>43552974795606067</t>
   </si>
   <si>
-    <t>18865378787186640</t>
-  </si>
-  <si>
     <t>12752224677923341</t>
   </si>
   <si>
@@ -883,12 +883,12 @@
     <t>43622578471330344</t>
   </si>
   <si>
+    <t>5866848234665627</t>
+  </si>
+  <si>
     <t>11091856606007867</t>
   </si>
   <si>
-    <t>5866848234665627</t>
-  </si>
-  <si>
     <t>11432067920374603</t>
   </si>
   <si>
@@ -925,12 +925,12 @@
     <t>29247915161590165</t>
   </si>
   <si>
+    <t>11282920140235578</t>
+  </si>
+  <si>
     <t>66142616039907394</t>
   </si>
   <si>
-    <t>11282920140235578</t>
-  </si>
-  <si>
     <t>15374483986949695</t>
   </si>
   <si>
@@ -1075,12 +1075,12 @@
     <t>53205017282866644</t>
   </si>
   <si>
+    <t>32347247706508046</t>
+  </si>
+  <si>
     <t>25360782993370900</t>
   </si>
   <si>
-    <t>32347247706508046</t>
-  </si>
-  <si>
     <t>36531083140502478</t>
   </si>
   <si>
@@ -1174,12 +1174,12 @@
     <t>15521712617204216</t>
   </si>
   <si>
+    <t>4686607974846832</t>
+  </si>
+  <si>
     <t>62422436072345198</t>
   </si>
   <si>
-    <t>4686607974846832</t>
-  </si>
-  <si>
     <t>3083005592739412</t>
   </si>
   <si>
@@ -1219,12 +1219,12 @@
     <t>33808206014018431</t>
   </si>
   <si>
+    <t>10411612959317157</t>
+  </si>
+  <si>
     <t>43913530989262989</t>
   </si>
   <si>
-    <t>10411612959317157</t>
-  </si>
-  <si>
     <t>58035444268544991</t>
   </si>
   <si>
@@ -1264,12 +1264,12 @@
     <t>14617104402836487</t>
   </si>
   <si>
+    <t>28450080638096732</t>
+  </si>
+  <si>
     <t>3833483672193514</t>
   </si>
   <si>
-    <t>28450080638096732</t>
-  </si>
-  <si>
     <t>2512214120008228</t>
   </si>
   <si>
@@ -1321,12 +1321,12 @@
     <t>34066377223628725</t>
   </si>
   <si>
+    <t>31049085025064185</t>
+  </si>
+  <si>
     <t>49831372632909204</t>
   </si>
   <si>
-    <t>31049085025064185</t>
-  </si>
-  <si>
     <t>38555056423456635</t>
   </si>
   <si>
@@ -1369,12 +1369,12 @@
     <t>40025799067544201</t>
   </si>
   <si>
+    <t>65490886290565185</t>
+  </si>
+  <si>
     <t>9049928781611298</t>
   </si>
   <si>
-    <t>65490886290565185</t>
-  </si>
-  <si>
     <t>15282093177363578</t>
   </si>
   <si>
@@ -1507,12 +1507,12 @@
     <t>11640540339380126</t>
   </si>
   <si>
+    <t>14522053794333421</t>
+  </si>
+  <si>
     <t>20562694899904339</t>
   </si>
   <si>
-    <t>14522053794333421</t>
-  </si>
-  <si>
     <t>31920617569703557</t>
   </si>
   <si>
@@ -1654,12 +1654,12 @@
     <t>34032872653290886</t>
   </si>
   <si>
+    <t>33736447482634583</t>
+  </si>
+  <si>
     <t>61978776664766359</t>
   </si>
   <si>
-    <t>33736447482634583</t>
-  </si>
-  <si>
     <t>18401147983387689</t>
   </si>
   <si>
@@ -1702,12 +1702,12 @@
     <t>22424135367941584</t>
   </si>
   <si>
+    <t>19367527798307032</t>
+  </si>
+  <si>
     <t>70849059438036431</t>
   </si>
   <si>
-    <t>19367527798307032</t>
-  </si>
-  <si>
     <t>34673681828119297</t>
   </si>
   <si>
@@ -1753,12 +1753,12 @@
     <t>45507655586782998</t>
   </si>
   <si>
+    <t>22742134293057021</t>
+  </si>
+  <si>
     <t>64485827086284311</t>
   </si>
   <si>
-    <t>22742134293057021</t>
-  </si>
-  <si>
     <t>4733285133017464</t>
   </si>
   <si>
@@ -1801,12 +1801,12 @@
     <t>8175784894140974</t>
   </si>
   <si>
+    <t>43716452378323683</t>
+  </si>
+  <si>
     <t>8304657348899424</t>
   </si>
   <si>
-    <t>43716452378323683</t>
-  </si>
-  <si>
     <t>318005355896147</t>
   </si>
   <si>
@@ -1948,12 +1948,12 @@
     <t>33634705189692362</t>
   </si>
   <si>
+    <t>30535783752961355</t>
+  </si>
+  <si>
     <t>36671655475498480</t>
   </si>
   <si>
-    <t>30535783752961355</t>
-  </si>
-  <si>
     <t>35964395659427029</t>
   </si>
   <si>
@@ -2044,12 +2044,12 @@
     <t>60350996279289099</t>
   </si>
   <si>
+    <t>13196430375349226</t>
+  </si>
+  <si>
     <t>45608932669358493</t>
   </si>
   <si>
-    <t>13196430375349226</t>
-  </si>
-  <si>
     <t>58810336532668771</t>
   </si>
   <si>
@@ -2134,12 +2134,12 @@
     <t>19471788163911687</t>
   </si>
   <si>
+    <t>13279867471688540</t>
+  </si>
+  <si>
     <t>63499217872110599</t>
   </si>
   <si>
-    <t>13279867471688540</t>
-  </si>
-  <si>
     <t>1822787329898392</t>
   </si>
   <si>
@@ -2185,12 +2185,12 @@
     <t>67206358287598044</t>
   </si>
   <si>
+    <t>6787397679438294</t>
+  </si>
+  <si>
     <t>22275596386264204</t>
   </si>
   <si>
-    <t>6787397679438294</t>
-  </si>
-  <si>
     <t>42049553761321495</t>
   </si>
   <si>
@@ -2236,12 +2236,12 @@
     <t>18027801615184692</t>
   </si>
   <si>
+    <t>55376450081365373</t>
+  </si>
+  <si>
     <t>53716725737664022</t>
   </si>
   <si>
-    <t>55376450081365373</t>
-  </si>
-  <si>
     <t>62346804681275278</t>
   </si>
   <si>
@@ -2284,12 +2284,12 @@
     <t>16422980660132735</t>
   </si>
   <si>
+    <t>21758758306221606</t>
+  </si>
+  <si>
     <t>45641540066710190</t>
   </si>
   <si>
-    <t>21758758306221606</t>
-  </si>
-  <si>
     <t>36774567041364173</t>
   </si>
   <si>
@@ -2524,12 +2524,12 @@
     <t>63917421733088077</t>
   </si>
   <si>
+    <t>27361263980884014</t>
+  </si>
+  <si>
     <t>5920901446678689</t>
   </si>
   <si>
-    <t>27361263980884014</t>
-  </si>
-  <si>
     <t>68117765376081366</t>
   </si>
   <si>
@@ -2569,15 +2569,15 @@
     <t>7395271748414592</t>
   </si>
   <si>
+    <t>61638134258699624</t>
+  </si>
+  <si>
+    <t>17001700431164407</t>
+  </si>
+  <si>
     <t>47333458678352378</t>
   </si>
   <si>
-    <t>17001700431164407</t>
-  </si>
-  <si>
-    <t>61638134258699624</t>
-  </si>
-  <si>
     <t>66424163876658304</t>
   </si>
   <si>
@@ -2818,12 +2818,12 @@
     <t>30447901674051381</t>
   </si>
   <si>
+    <t>24335615175713314</t>
+  </si>
+  <si>
     <t>39854376080953165</t>
   </si>
   <si>
-    <t>24335615175713314</t>
-  </si>
-  <si>
     <t>35369183060321179</t>
   </si>
   <si>
@@ -2956,15 +2956,15 @@
     <t>41935584690956944</t>
   </si>
   <si>
+    <t>8590994832698963</t>
+  </si>
+  <si>
+    <t>57219771314070546</t>
+  </si>
+  <si>
     <t>69143674941561637</t>
   </si>
   <si>
-    <t>8590994832698963</t>
-  </si>
-  <si>
-    <t>57219771314070546</t>
-  </si>
-  <si>
     <t>12638840758449459</t>
   </si>
   <si>
@@ -3010,12 +3010,12 @@
     <t>5208723461432451</t>
   </si>
   <si>
+    <t>52593789542874668</t>
+  </si>
+  <si>
     <t>14419337127600051</t>
   </si>
   <si>
-    <t>52593789542874668</t>
-  </si>
-  <si>
     <t>57722642338781674</t>
   </si>
   <si>
@@ -3058,10 +3058,10 @@
     <t>64358061873294912</t>
   </si>
   <si>
+    <t>59887423232292688</t>
+  </si>
+  <si>
     <t>45709267601703167</t>
-  </si>
-  <si>
-    <t>59887423232292688</t>
   </si>
   <si>
     <t>53113471126689455</t>
